--- a/Mifos Automation Excels/Client/Scenario4-Chaithanyaprod-EARLY-TR1-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/Scenario4-Chaithanyaprod-EARLY-TR1-Makerepayment1.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,7 @@
         <v>6907.48</v>
       </c>
       <c r="F3" s="8">
-        <v>5687.67</v>
+        <v>5218.3100000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1365,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1415,25 +1415,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2759</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="9">
-        <v>42036</v>
+        <v>42024</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
-        <v>509.59</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
+      <c r="E2" s="8">
+        <v>4438.6000000000004</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4126.2700000000004</v>
       </c>
       <c r="G2" s="3">
-        <v>509.59</v>
+        <v>312.33</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
@@ -1441,13 +1441,13 @@
       <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="J2" s="7">
-        <v>50000</v>
+      <c r="J2" s="8">
+        <v>45873.73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2757</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
